--- a/picker_table.xlsx
+++ b/picker_table.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cctbl\Desktop\專題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reira\git\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C323C055-6BC2-48B7-B582-85644037D22F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12105" yWindow="2805" windowWidth="21600" windowHeight="11385" xr2:uid="{BDB9C3CF-F92C-4B7C-8611-EA196B7BFF8C}"/>
+    <workbookView xWindow="-12105" yWindow="2805" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="108">
   <si>
     <t>商品編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,14 +447,18 @@
   </si>
   <si>
     <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品Picker_ProdDesc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -481,6 +484,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -632,7 +641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -660,6 +669,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -669,14 +687,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -991,11 +1006,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDA078D-3150-40E3-8316-54C96846E66A}">
-  <dimension ref="B3:M55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1014,20 +1029,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="H3" s="9" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="H3" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="11"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -1077,10 +1092,10 @@
       <c r="J5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L5" s="12"/>
+      <c r="L5" s="9"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
@@ -1103,10 +1118,10 @@
       <c r="J6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L6" s="12"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="2" t="s">
         <v>68</v>
       </c>
@@ -1131,10 +1146,10 @@
       <c r="J7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="12"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
@@ -1157,10 +1172,10 @@
       <c r="J8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L8" s="12"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1185,10 +1200,10 @@
       <c r="J9" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="10" t="s">
         <v>105</v>
       </c>
       <c r="M9" s="8"/>
@@ -1213,10 +1228,10 @@
       <c r="J10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="11">
         <v>0</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -1243,10 +1258,10 @@
       <c r="J11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L11" s="12"/>
+      <c r="L11" s="9"/>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
@@ -1269,10 +1284,10 @@
       <c r="J12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L12" s="12"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
@@ -1351,23 +1366,39 @@
       </c>
       <c r="E18" s="2"/>
     </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+    </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H20" s="9" t="s">
+      <c r="B20" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="H20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="11"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="14"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
+      <c r="B21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="6"/>
       <c r="H21" s="6" t="s">
         <v>19</v>
       </c>
@@ -1382,16 +1413,10 @@
       <c r="M21" s="6"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="6"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
       <c r="H22" s="2" t="s">
         <v>6</v>
       </c>
@@ -1404,15 +1429,9 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="H23" s="2" t="s">
         <v>7</v>
@@ -1426,15 +1445,9 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="H24" s="2" t="s">
         <v>8</v>
@@ -1452,14 +1465,10 @@
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
       <c r="H25" s="2" t="s">
         <v>9</v>
       </c>
@@ -1473,17 +1482,11 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="5"/>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="7"/>
       <c r="H26" s="2" t="s">
         <v>10</v>
       </c>
@@ -1497,19 +1500,11 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="2:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>35</v>
-      </c>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
       <c r="H27" s="2" t="s">
         <v>11</v>
       </c>
@@ -1522,15 +1517,9 @@
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="H28" s="2" t="s">
         <v>12</v>
@@ -1544,15 +1533,9 @@
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="H29" s="5" t="s">
         <v>13</v>
@@ -1566,6 +1549,10 @@
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="2:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
       <c r="H30" s="4" t="s">
         <v>16</v>
       </c>
@@ -1581,7 +1568,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3"/>
       <c r="H31" s="2" t="s">
         <v>14</v>
       </c>
@@ -1595,7 +1586,11 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
       <c r="H32" s="2" t="s">
         <v>15</v>
       </c>
@@ -1609,23 +1604,37 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
+    <row r="33" spans="2:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H35" s="9" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="H35" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="11"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="14"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
       <c r="H36" s="6" t="s">
         <v>19</v>
       </c>
@@ -1640,16 +1649,10 @@
       <c r="M36" s="6"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="6"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
       <c r="H37" s="2" t="s">
         <v>17</v>
       </c>
@@ -1664,14 +1667,10 @@
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
       <c r="H38" s="2" t="s">
         <v>44</v>
       </c>
@@ -1686,14 +1685,10 @@
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
       <c r="H39" s="2" t="s">
         <v>0</v>
       </c>
@@ -1706,12 +1701,10 @@
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
       <c r="H40" s="2" t="s">
         <v>4</v>
       </c>
@@ -1724,12 +1717,10 @@
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
       <c r="H41" s="2" t="s">
         <v>50</v>
       </c>
@@ -1742,14 +1733,10 @@
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
       <c r="H42" s="5" t="s">
         <v>49</v>
       </c>
@@ -1762,18 +1749,10 @@
       <c r="M42" s="5"/>
     </row>
     <row r="43" spans="2:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
       <c r="H43" s="4" t="s">
         <v>14</v>
       </c>
@@ -1788,16 +1767,10 @@
       <c r="M43" s="4"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E44" s="2"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
       <c r="H44" s="2" t="s">
         <v>15</v>
       </c>
@@ -1812,120 +1785,347 @@
       <c r="M44" s="2"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="2"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="14"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C53" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D53" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="6"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="2:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="E53" s="6"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="2:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E55" s="2"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="14"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="2:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="14"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="2:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E86" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="H20:M20"/>
-    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B79:E79"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B67:E67"/>
     <mergeCell ref="H35:M35"/>
+    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/picker_table.xlsx
+++ b/picker_table.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cctbl\Documents\PICKER\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reira\git\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30CADBB-1314-4F82-B42D-6B67BFA75D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12690" yWindow="2835" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12690" yWindow="2835" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="117">
   <si>
     <t>商品編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,10 +237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>輪播圖(CarouselPic)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UUID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,10 +249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>圖片編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>圖片名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -347,134 +338,160 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>int(2)</t>
+  </si>
+  <si>
+    <t>會員價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般會員價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nprice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品敘述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProdDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(4)</t>
+  </si>
+  <si>
+    <t>Sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:一般會員,1:PK會員</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員帳號(Picker_Member)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主鍵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員資訊(Picker_MemberInfo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輪播圖(Picker_CarouselPic)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否顯示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圖片順序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isShow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>varchar(30)</t>
-  </si>
-  <si>
-    <t>int(2)</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>會員價</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般會員價</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nprice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品敘述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProdDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(4)</t>
-  </si>
-  <si>
-    <t>Sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>預設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:一般會員,1:PK會員</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>會員帳號(Picker_Member)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemberId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemberType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主鍵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>會員資訊(Picker_MemberInfo)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(15)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -692,6 +709,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -700,24 +735,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1032,11 +1049,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46:K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1044,34 +1061,34 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.75" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="1"/>
     <col min="10" max="11" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.75" style="17" customWidth="1"/>
+    <col min="13" max="13" width="5.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.75" style="14" customWidth="1"/>
     <col min="15" max="15" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="J3" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="15"/>
+      <c r="B3" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
+      <c r="J3" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="21"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -1083,11 +1100,11 @@
       <c r="D4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>95</v>
+      <c r="E4" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="G4" s="6"/>
       <c r="J4" s="6" t="s">
@@ -1099,11 +1116,11 @@
       <c r="L4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>95</v>
+      <c r="M4" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="O4" s="6"/>
     </row>
@@ -1115,7 +1132,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -1127,10 +1144,10 @@
         <v>5</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="2"/>
@@ -1143,7 +1160,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -1155,25 +1172,25 @@
         <v>51</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -1185,38 +1202,38 @@
         <v>18</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="2"/>
@@ -1229,27 +1246,27 @@
         <v>50</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+        <v>68</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="N9" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>96</v>
       </c>
       <c r="O9" s="8"/>
     </row>
@@ -1261,7 +1278,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -1273,10 +1290,10 @@
         <v>22</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N10" s="11">
         <v>0</v>
@@ -1290,10 +1307,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -1305,10 +1322,10 @@
         <v>24</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="2"/>
@@ -1321,7 +1338,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -1333,23 +1350,23 @@
         <v>23</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -1357,13 +1374,13 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -1371,18 +1388,18 @@
     </row>
     <row r="15" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1393,7 +1410,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -1409,7 +1426,7 @@
         <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -1423,7 +1440,7 @@
         <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -1433,29 +1450,29 @@
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="J20" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="15"/>
+      <c r="J20" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="21"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
+      <c r="B21" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
       <c r="J21" s="6" t="s">
         <v>19</v>
       </c>
@@ -1465,11 +1482,11 @@
       <c r="L21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="N21" s="16" t="s">
-        <v>95</v>
+      <c r="M21" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="O21" s="6"/>
     </row>
@@ -1483,11 +1500,11 @@
       <c r="D22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>95</v>
+      <c r="E22" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="G22" s="6"/>
       <c r="J22" s="2" t="s">
@@ -1497,28 +1514,28 @@
         <v>5</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N22" s="9"/>
       <c r="O22" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="2"/>
@@ -1529,10 +1546,10 @@
         <v>18</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N23" s="9"/>
       <c r="O23" s="2"/>
@@ -1542,13 +1559,13 @@
         <v>11</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="2"/>
@@ -1559,10 +1576,10 @@
         <v>27</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N24" s="9"/>
       <c r="O24" s="2" t="s">
@@ -1574,13 +1591,13 @@
         <v>12</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="2"/>
@@ -1591,10 +1608,10 @@
         <v>28</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N25" s="9"/>
       <c r="O25" s="2"/>
@@ -1604,27 +1621,27 @@
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" s="21"/>
+        <v>99</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="18"/>
       <c r="G26" s="3"/>
       <c r="J26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N26" s="9"/>
       <c r="O26" s="2"/>
@@ -1634,31 +1651,31 @@
         <v>13</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="18">
+        <v>94</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="15">
         <v>0</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N27" s="9"/>
       <c r="O27" s="2"/>
@@ -1671,10 +1688,10 @@
         <v>22</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F28" s="11">
         <v>0</v>
@@ -1686,13 +1703,13 @@
         <v>12</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N28" s="9"/>
       <c r="O28" s="2"/>
@@ -1705,10 +1722,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="2"/>
@@ -1716,19 +1733,19 @@
         <v>13</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="M29" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="N29" s="18">
+        <v>94</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="N29" s="15">
         <v>0</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="2:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1739,10 +1756,10 @@
         <v>23</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="2"/>
@@ -1753,7 +1770,7 @@
         <v>22</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
@@ -1769,7 +1786,7 @@
         <v>24</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
@@ -1783,21 +1800,21 @@
         <v>23</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="2"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="J35" s="13" t="s">
+      <c r="J35" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="15"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="21"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J36" s="6" t="s">
@@ -1809,19 +1826,19 @@
       <c r="L36" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
       <c r="O36" s="6"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="15"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="21"/>
       <c r="J37" s="2" t="s">
         <v>17</v>
       </c>
@@ -1845,8 +1862,8 @@
       <c r="D38" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
       <c r="G38" s="6"/>
       <c r="J38" s="2" t="s">
         <v>38</v>
@@ -1941,8 +1958,8 @@
         <v>46</v>
       </c>
       <c r="L42" s="5"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
       <c r="O42" s="5"/>
     </row>
     <row r="43" spans="2:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1963,7 +1980,7 @@
         <v>24</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M43" s="11"/>
       <c r="N43" s="11"/>
@@ -1977,7 +1994,7 @@
         <v>22</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
@@ -1991,7 +2008,7 @@
         <v>23</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
@@ -2005,7 +2022,7 @@
         <v>24</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -2019,21 +2036,21 @@
         <v>23</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="2"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="15"/>
+      <c r="B49" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="21"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
@@ -2045,19 +2062,19 @@
       <c r="D50" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
       <c r="G50" s="6"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -2065,61 +2082,63 @@
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="4" t="s">
+    <row r="54" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="2" t="s">
+    <row r="55" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="2"/>
+      <c r="D55" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="4"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
@@ -2129,7 +2148,7 @@
         <v>23</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>

--- a/picker_table.xlsx
+++ b/picker_table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reira\git\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cctbl\Documents\PICKER\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073506DC-FF32-443F-8C67-4B6E6ACB2FF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12690" yWindow="2835" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="-9465" yWindow="3180" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="116">
   <si>
     <t>商品編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -433,10 +434,6 @@
   </si>
   <si>
     <t>PWD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -491,7 +488,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1049,11 +1046,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46:K53"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1456,7 +1453,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J20" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
@@ -1576,7 +1573,7 @@
         <v>27</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>87</v>
@@ -1608,7 +1605,7 @@
         <v>28</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M25" s="9" t="s">
         <v>87</v>
@@ -1635,7 +1632,7 @@
         <v>10</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>73</v>
@@ -1703,7 +1700,7 @@
         <v>12</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>74</v>
@@ -1733,7 +1730,7 @@
         <v>13</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>94</v>
@@ -2044,7 +2041,7 @@
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
@@ -2074,7 +2071,7 @@
         <v>53</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -2082,13 +2079,13 @@
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -2104,7 +2101,7 @@
         <v>18</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
@@ -2112,10 +2109,10 @@
     </row>
     <row r="54" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>70</v>
@@ -2128,7 +2125,7 @@
     </row>
     <row r="55" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>24</v>

--- a/picker_table.xlsx
+++ b/picker_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cctbl\Documents\PICKER\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073506DC-FF32-443F-8C67-4B6E6ACB2FF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EA1B86-47C2-44FC-9C87-9D8EB1D0821B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9465" yWindow="3180" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="118">
   <si>
     <t>商品編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,42 +150,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>總金額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狀態</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>折扣金額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>訂單資訊(OrderInfo)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>訂單明細(OrderDetail)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OrderId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>訂單序號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PK,I1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,22 +162,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ProdId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交易金額</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>折扣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DealPrice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -482,6 +438,58 @@
   </si>
   <si>
     <t>varchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單明細</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OdrDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單明細(Picker_OrderInfo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recipient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陣列壓縮)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Re_Addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人電話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Re_Phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單寄送資訊(Picker_Trans)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,7 +674,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -723,6 +731,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1049,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="H34" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1070,22 +1081,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
-      <c r="J3" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="21"/>
+      <c r="B3" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+      <c r="J3" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="22"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -1098,10 +1109,10 @@
         <v>21</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G4" s="6"/>
       <c r="J4" s="6" t="s">
@@ -1114,10 +1125,10 @@
         <v>21</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="O4" s="6"/>
     </row>
@@ -1129,22 +1140,22 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="2"/>
@@ -1157,113 +1168,113 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="O9" s="8"/>
     </row>
@@ -1275,7 +1286,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -1287,10 +1298,10 @@
         <v>22</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="N10" s="11">
         <v>0</v>
@@ -1304,10 +1315,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -1319,10 +1330,10 @@
         <v>24</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="2"/>
@@ -1335,7 +1346,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -1347,23 +1358,23 @@
         <v>23</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -1371,13 +1382,13 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -1385,18 +1396,18 @@
     </row>
     <row r="15" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1407,7 +1418,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -1423,7 +1434,7 @@
         <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -1437,7 +1448,7 @@
         <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -1452,24 +1463,24 @@
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="J20" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="21"/>
+      <c r="J20" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="22"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
+      <c r="B21" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
       <c r="J21" s="6" t="s">
         <v>19</v>
       </c>
@@ -1480,10 +1491,10 @@
         <v>21</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="O21" s="6"/>
     </row>
@@ -1498,10 +1509,10 @@
         <v>21</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G22" s="6"/>
       <c r="J22" s="2" t="s">
@@ -1511,28 +1522,28 @@
         <v>5</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N22" s="9"/>
       <c r="O22" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="2"/>
@@ -1543,10 +1554,10 @@
         <v>18</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N23" s="9"/>
       <c r="O23" s="2"/>
@@ -1556,13 +1567,13 @@
         <v>11</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="2"/>
@@ -1573,10 +1584,10 @@
         <v>27</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N24" s="9"/>
       <c r="O24" s="2" t="s">
@@ -1588,13 +1599,13 @@
         <v>12</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="2"/>
@@ -1605,10 +1616,10 @@
         <v>28</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N25" s="9"/>
       <c r="O25" s="2"/>
@@ -1618,13 +1629,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="3"/>
@@ -1632,13 +1643,13 @@
         <v>10</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N26" s="9"/>
       <c r="O26" s="2"/>
@@ -1648,31 +1659,31 @@
         <v>13</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F27" s="15">
         <v>0</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N27" s="9"/>
       <c r="O27" s="2"/>
@@ -1685,10 +1696,10 @@
         <v>22</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F28" s="11">
         <v>0</v>
@@ -1700,13 +1711,13 @@
         <v>12</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N28" s="9"/>
       <c r="O28" s="2"/>
@@ -1719,10 +1730,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="2"/>
@@ -1730,19 +1741,19 @@
         <v>13</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N29" s="15">
         <v>0</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="2:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1753,10 +1764,10 @@
         <v>23</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="2"/>
@@ -1767,7 +1778,7 @@
         <v>22</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
@@ -1783,13 +1794,21 @@
         <v>24</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="2"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
       <c r="J32" s="2" t="s">
         <v>15</v>
       </c>
@@ -1797,23 +1816,77 @@
         <v>23</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="2"/>
     </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="2"/>
+    </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="J35" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="21"/>
+      <c r="B35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="22"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="2"/>
       <c r="J36" s="6" t="s">
         <v>19</v>
       </c>
@@ -1823,153 +1896,157 @@
       <c r="L36" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
+      <c r="M36" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>80</v>
+      </c>
       <c r="O36" s="6"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="21"/>
+    <row r="37" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="J37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L37" s="2"/>
-      <c r="M37" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="N37" s="9"/>
       <c r="O37" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="6"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="4"/>
       <c r="J38" s="2" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L38" s="2"/>
-      <c r="M38" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="N38" s="9"/>
       <c r="O38" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="2"/>
       <c r="J39" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L39" s="2"/>
-      <c r="M39" s="9"/>
+        <v>87</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="N39" s="9"/>
-      <c r="O39" s="2"/>
+      <c r="O39" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L40" s="2"/>
-      <c r="M40" s="9"/>
+        <v>107</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="N40" s="9"/>
-      <c r="O40" s="2"/>
+      <c r="O40" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="2"/>
-      <c r="J41" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="K41" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L41" s="2"/>
-      <c r="M41" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="N41" s="9"/>
       <c r="O41" s="2"/>
     </row>
     <row r="42" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="2"/>
-      <c r="J42" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L42" s="5"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="5"/>
-    </row>
-    <row r="43" spans="2:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="2"/>
+      <c r="J42" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N42" s="9"/>
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="2:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="J43" s="4" t="s">
         <v>14</v>
       </c>
@@ -1977,27 +2054,13 @@
         <v>24</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="M43" s="11"/>
       <c r="N43" s="11"/>
       <c r="O43" s="4"/>
     </row>
-    <row r="44" spans="2:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="4" t="s">
-        <v>29</v>
-      </c>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J44" s="2" t="s">
         <v>15</v>
       </c>
@@ -2005,160 +2068,180 @@
         <v>23</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J46" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="22"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J47" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="N47" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="O47" s="6"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J48" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M48" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="N48" s="13"/>
+      <c r="O48" s="6"/>
+    </row>
+    <row r="49" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N49" s="9"/>
+      <c r="O49" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N50" s="9"/>
+      <c r="O50" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K51" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N51" s="9"/>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J52" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K52" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N52" s="9"/>
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="10:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J53" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K53" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N53" s="9"/>
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="10:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J54" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="K54" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
+      <c r="L54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="4"/>
+    </row>
+    <row r="55" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="K55" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="21"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="6"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
+      <c r="L55" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="2"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="2"/>
+    </row>
+    <row r="56" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J46:O46"/>
     <mergeCell ref="J3:O3"/>
     <mergeCell ref="J20:O20"/>
-    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B32:G32"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B37:G37"/>
     <mergeCell ref="J35:O35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/picker_table.xlsx
+++ b/picker_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cctbl\Documents\PICKER\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EA1B86-47C2-44FC-9C87-9D8EB1D0821B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85143FE9-2DA1-4069-B2FB-A695BDF391C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12045" yWindow="3495" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="124">
   <si>
     <t>商品編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0-7(共8張圖)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>圖片名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -295,65 +291,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>一般會員價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nprice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品敘述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProdDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(4)</t>
+  </si>
+  <si>
+    <t>Sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int(2)</t>
-  </si>
-  <si>
-    <t>會員價</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般會員價</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nprice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品敘述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProdDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(4)</t>
-  </si>
-  <si>
-    <t>Sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>預設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -421,10 +410,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>圖片順序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -437,10 +422,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -490,6 +471,50 @@
   </si>
   <si>
     <t>訂單寄送資訊(Picker_Trans)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前只可放10張圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圖片檔名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規格資訊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規格名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批客價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理者帳號(Picker_Manager)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否停用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isUnuse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,7 +547,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -696,9 +720,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -723,9 +744,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -734,6 +752,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1060,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H34" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1069,20 +1093,20 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.75" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="1"/>
     <col min="10" max="11" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.75" style="14" customWidth="1"/>
+    <col min="13" max="13" width="5.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.75" style="13" customWidth="1"/>
     <col min="15" max="15" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -1090,7 +1114,7 @@
       <c r="F3" s="21"/>
       <c r="G3" s="22"/>
       <c r="J3" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
@@ -1108,11 +1132,11 @@
       <c r="D4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>80</v>
+      <c r="E4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="G4" s="6"/>
       <c r="J4" s="6" t="s">
@@ -1124,11 +1148,11 @@
       <c r="L4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>80</v>
+      <c r="M4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="O4" s="6"/>
     </row>
@@ -1140,10 +1164,12 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+        <v>64</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="8"/>
       <c r="G5" s="2"/>
       <c r="J5" s="2" t="s">
         <v>36</v>
@@ -1152,12 +1178,12 @@
         <v>5</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="N5" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="8"/>
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -1168,10 +1194,12 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+        <v>62</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="8"/>
       <c r="G6" s="2"/>
       <c r="J6" s="2" t="s">
         <v>37</v>
@@ -1180,28 +1208,30 @@
         <v>40</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="N6" s="9"/>
+        <v>58</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" s="8"/>
       <c r="O6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="8"/>
       <c r="G7" s="2"/>
       <c r="J7" s="2" t="s">
         <v>38</v>
@@ -1210,87 +1240,93 @@
         <v>18</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="N7" s="9"/>
+        <v>57</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="8"/>
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="8"/>
       <c r="G8" s="2"/>
       <c r="J8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M8" s="9" t="s">
+      <c r="J9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K9" s="8" t="s">
+      <c r="N9" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="L9" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="O9" s="8"/>
+      <c r="O9" s="7"/>
     </row>
     <row r="10" spans="2:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="2"/>
+      <c r="B10" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="18"/>
       <c r="J10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1298,12 +1334,12 @@
         <v>22</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10" s="11">
+        <v>58</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" s="10">
         <v>0</v>
       </c>
       <c r="O10" s="4" t="s">
@@ -1311,18 +1347,20 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="2"/>
+      <c r="B11" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="18"/>
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1330,27 +1368,29 @@
         <v>24</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="2"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="18"/>
       <c r="J12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1358,113 +1398,149 @@
         <v>23</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" s="8"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="N12" s="9"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>52</v>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="5" t="s">
+    </row>
+    <row r="18" spans="2:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="E19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="2"/>
       <c r="J20" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
@@ -1473,14 +1549,12 @@
       <c r="O20" s="22"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="11"/>
       <c r="J21" s="6" t="s">
         <v>19</v>
       </c>
@@ -1490,31 +1564,15 @@
       <c r="L21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="N21" s="13" t="s">
-        <v>80</v>
+      <c r="M21" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="6"/>
       <c r="J22" s="2" t="s">
         <v>6</v>
       </c>
@@ -1522,31 +1580,25 @@
         <v>5</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="N22" s="9"/>
+        <v>85</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N22" s="8"/>
       <c r="O22" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="2"/>
+      <c r="B23" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
       <c r="J23" s="2" t="s">
         <v>7</v>
       </c>
@@ -1554,29 +1606,31 @@
         <v>18</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M23" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="N23" s="9"/>
+      <c r="N23" s="8"/>
       <c r="O23" s="2"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="2"/>
+      <c r="B24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="6"/>
       <c r="J24" s="2" t="s">
         <v>8</v>
       </c>
@@ -1584,30 +1638,30 @@
         <v>27</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M24" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M24" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="N24" s="9"/>
+      <c r="N24" s="8"/>
       <c r="O24" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="9"/>
+        <v>64</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="8"/>
       <c r="G25" s="2"/>
       <c r="J25" s="2" t="s">
         <v>9</v>
@@ -1616,161 +1670,161 @@
         <v>28</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M25" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M25" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="N25" s="9"/>
+      <c r="N25" s="8"/>
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="3"/>
+      <c r="D26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="2"/>
       <c r="J26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N26" s="8"/>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M26" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="N26" s="9"/>
-      <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="15">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>84</v>
-      </c>
+      <c r="E27" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="2"/>
       <c r="J27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="N27" s="9"/>
+        <v>61</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N27" s="8"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="2:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="11">
-        <v>0</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>29</v>
-      </c>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="3"/>
       <c r="J28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="N28" s="9"/>
+        <v>62</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N28" s="8"/>
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="2"/>
+      <c r="B29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="14">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="J29" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M29" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N29" s="14">
+        <v>0</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="N29" s="15">
+      <c r="F30" s="10">
         <v>0</v>
       </c>
-      <c r="O29" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="2"/>
+      <c r="G30" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="J30" s="4" t="s">
         <v>16</v>
       </c>
@@ -1778,15 +1832,33 @@
         <v>22</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N30" s="10">
+        <v>0</v>
+      </c>
       <c r="O30" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="2"/>
       <c r="J31" s="2" t="s">
         <v>14</v>
       </c>
@@ -1794,21 +1866,29 @@
         <v>24</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N31" s="8"/>
       <c r="O31" s="2"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
+      <c r="B32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="2"/>
       <c r="J32" s="2" t="s">
         <v>15</v>
       </c>
@@ -1816,57 +1896,43 @@
         <v>23</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N32" s="8"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="E35" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="6"/>
       <c r="J35" s="20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K35" s="21"/>
       <c r="L35" s="21"/>
@@ -1876,16 +1942,18 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+        <v>64</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="8"/>
       <c r="G36" s="2"/>
       <c r="J36" s="6" t="s">
         <v>19</v>
@@ -1896,28 +1964,30 @@
       <c r="L36" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M36" s="13" t="s">
+      <c r="M36" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O36" s="6"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="N36" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="O36" s="6"/>
-    </row>
-    <row r="37" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
+        <v>98</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="8"/>
       <c r="G37" s="2" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>17</v>
@@ -1926,95 +1996,131 @@
         <v>5</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="N37" s="9"/>
+        <v>100</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N37" s="8"/>
       <c r="O37" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="4"/>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="J38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="N38" s="9"/>
+        <v>85</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N38" s="8"/>
       <c r="O38" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="J39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="N39" s="9"/>
+        <v>80</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N39" s="8"/>
       <c r="O39" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="4"/>
       <c r="J40" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N40" s="8"/>
+      <c r="O40" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="L40" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M40" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="N40" s="9"/>
-      <c r="O40" s="2" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="2"/>
       <c r="J41" s="2" t="s">
         <v>34</v>
       </c>
@@ -2022,28 +2128,28 @@
         <v>35</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M41" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="N41" s="9"/>
+        <v>64</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N41" s="8"/>
       <c r="O41" s="2"/>
     </row>
     <row r="42" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J42" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>41</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="N42" s="9"/>
+        <v>62</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N42" s="8"/>
       <c r="O42" s="2"/>
     </row>
     <row r="43" spans="2:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2054,13 +2160,23 @@
         <v>24</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="M43" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="N43" s="10"/>
       <c r="O43" s="4"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="22"/>
       <c r="J44" s="2" t="s">
         <v>15</v>
       </c>
@@ -2068,15 +2184,49 @@
         <v>23</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N44" s="8"/>
       <c r="O44" s="2"/>
     </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G45" s="6"/>
+    </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="2"/>
       <c r="J46" s="20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K46" s="21"/>
       <c r="L46" s="21"/>
@@ -2085,6 +2235,20 @@
       <c r="O46" s="22"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="2"/>
       <c r="J47" s="6" t="s">
         <v>19</v>
       </c>
@@ -2094,15 +2258,29 @@
       <c r="L47" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M47" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="N47" s="13" t="s">
-        <v>80</v>
+      <c r="M47" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N47" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="O47" s="6"/>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="2"/>
       <c r="J48" s="6" t="s">
         <v>43</v>
       </c>
@@ -2110,15 +2288,33 @@
         <v>42</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M48" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M48" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="N48" s="12"/>
+      <c r="O48" s="6"/>
+    </row>
+    <row r="49" spans="2:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="N48" s="13"/>
-      <c r="O48" s="6"/>
-    </row>
-    <row r="49" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="F49" s="10">
+        <v>0</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="J49" s="2" t="s">
         <v>17</v>
       </c>
@@ -2126,83 +2322,111 @@
         <v>31</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M49" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="N49" s="9"/>
+        <v>100</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N49" s="8"/>
       <c r="O49" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="2"/>
       <c r="J50" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="N50" s="9"/>
+        <v>85</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N50" s="8"/>
       <c r="O50" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="2"/>
       <c r="J51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K51" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N51" s="8"/>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J52" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K52" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N52" s="8"/>
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J53" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="K51" s="19" t="s">
+      <c r="K53" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="L51" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M51" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="N51" s="9"/>
-      <c r="O51" s="2"/>
-    </row>
-    <row r="52" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J52" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K52" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M52" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="N52" s="9"/>
-      <c r="O52" s="2"/>
-    </row>
-    <row r="53" spans="10:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J53" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K53" s="19" t="s">
-        <v>116</v>
-      </c>
       <c r="L53" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M53" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="N53" s="9"/>
+        <v>87</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N53" s="8"/>
       <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="10:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="J54" s="4" t="s">
         <v>14</v>
       </c>
@@ -2210,13 +2434,13 @@
         <v>24</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
       <c r="O54" s="4"/>
     </row>
-    <row r="55" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J55" s="2" t="s">
         <v>15</v>
       </c>
@@ -2224,25 +2448,26 @@
         <v>23</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
       <c r="O55" s="2"/>
     </row>
-    <row r="56" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="J46:O46"/>
     <mergeCell ref="J3:O3"/>
     <mergeCell ref="J20:O20"/>
-    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B34:G34"/>
     <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B23:G23"/>
     <mergeCell ref="J35:O35"/>
+    <mergeCell ref="B44:G44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
